--- a/STOCK UTN/2023/01 JAN/02 Januari - 07 Januari 2022.xlsx
+++ b/STOCK UTN/2023/01 JAN/02 Januari - 07 Januari 2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11895" tabRatio="803" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11895" tabRatio="803" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JK KENKO" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,42 @@
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B634" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+HABIS. 
+-KOKO
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10723,13 +10759,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -10832,6 +10874,19 @@
       <sz val="10"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -10979,332 +11034,335 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11639,8 +11697,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="85" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -12806,8 +12864,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C2302"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A1089" zoomScale="85" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A1122" sqref="A1122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -13071,19 +13129,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>2128</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A2" s="94" t="str">
+      <c r="A2" s="95" t="str">
         <f ca="1">"TANGGAL : "&amp;SUBSTITUTE(MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1),".xlsx","")</f>
         <v>TANGGAL : KELUAR</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1">
       <c r="A3" s="47" t="s">
@@ -38198,12 +38256,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F949"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A260" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B260" sqref="B260"/>
+    <sheetView view="pageLayout" topLeftCell="A618" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B624" sqref="B624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -38232,30 +38290,30 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="36" customFormat="1">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="100" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="36" customFormat="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="101"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="102"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="18" t="s">
@@ -39388,30 +39446,30 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="96" t="s">
+      <c r="A67" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B67" s="97"/>
-      <c r="C67" s="100" t="s">
+      <c r="B67" s="98"/>
+      <c r="C67" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D67" s="102" t="s">
+      <c r="D67" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E67" s="104" t="s">
+      <c r="E67" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F67" s="100" t="s">
+      <c r="F67" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="98"/>
-      <c r="B68" s="99"/>
-      <c r="C68" s="101"/>
-      <c r="D68" s="103"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="101"/>
+      <c r="A68" s="99"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="106"/>
+      <c r="F68" s="102"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="41" t="s">
@@ -40436,30 +40494,30 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A126" s="116" t="s">
+      <c r="A126" s="117" t="s">
         <v>2047</v>
       </c>
-      <c r="B126" s="116"/>
-      <c r="C126" s="100" t="s">
+      <c r="B126" s="117"/>
+      <c r="C126" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D126" s="102" t="s">
+      <c r="D126" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E126" s="104" t="s">
+      <c r="E126" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F126" s="100" t="s">
+      <c r="F126" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="116"/>
-      <c r="B127" s="116"/>
-      <c r="C127" s="101"/>
-      <c r="D127" s="103"/>
-      <c r="E127" s="105"/>
-      <c r="F127" s="101"/>
+      <c r="A127" s="117"/>
+      <c r="B127" s="117"/>
+      <c r="C127" s="102"/>
+      <c r="D127" s="104"/>
+      <c r="E127" s="106"/>
+      <c r="F127" s="102"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="41" t="s">
@@ -40853,10 +40911,10 @@
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="95" t="s">
+      <c r="A150" s="96" t="s">
         <v>2458</v>
       </c>
-      <c r="B150" s="95"/>
+      <c r="B150" s="96"/>
       <c r="C150" s="17"/>
       <c r="D150" s="23"/>
       <c r="E150" s="13" t="s">
@@ -40867,30 +40925,30 @@
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="96" t="s">
+      <c r="A151" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B151" s="97"/>
-      <c r="C151" s="100" t="s">
+      <c r="B151" s="98"/>
+      <c r="C151" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D151" s="102" t="s">
+      <c r="D151" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E151" s="104" t="s">
+      <c r="E151" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F151" s="100" t="s">
+      <c r="F151" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="98"/>
-      <c r="B152" s="99"/>
-      <c r="C152" s="101"/>
-      <c r="D152" s="103"/>
-      <c r="E152" s="105"/>
-      <c r="F152" s="101"/>
+      <c r="A152" s="99"/>
+      <c r="B152" s="100"/>
+      <c r="C152" s="102"/>
+      <c r="D152" s="104"/>
+      <c r="E152" s="106"/>
+      <c r="F152" s="102"/>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="72"/>
@@ -41245,25 +41303,25 @@
       <c r="F174" s="4"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="106"/>
-      <c r="B175" s="108" t="s">
+      <c r="A175" s="107"/>
+      <c r="B175" s="109" t="s">
         <v>1557</v>
       </c>
-      <c r="C175" s="109"/>
-      <c r="D175" s="112">
+      <c r="C175" s="110"/>
+      <c r="D175" s="113">
         <v>1800</v>
       </c>
-      <c r="E175" s="114">
+      <c r="E175" s="115">
         <v>653</v>
       </c>
       <c r="F175" s="4"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="107"/>
-      <c r="B176" s="110"/>
-      <c r="C176" s="111"/>
-      <c r="D176" s="113"/>
-      <c r="E176" s="115"/>
+      <c r="A176" s="108"/>
+      <c r="B176" s="111"/>
+      <c r="C176" s="112"/>
+      <c r="D176" s="114"/>
+      <c r="E176" s="116"/>
       <c r="F176" s="4"/>
     </row>
     <row r="177" spans="1:6">
@@ -41486,11 +41544,11 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A191" s="95" t="s">
+      <c r="A191" s="96" t="s">
         <v>2459</v>
       </c>
-      <c r="B191" s="95"/>
-      <c r="C191" s="95"/>
+      <c r="B191" s="96"/>
+      <c r="C191" s="96"/>
       <c r="D191" s="23"/>
       <c r="E191" s="13" t="s">
         <v>2058</v>
@@ -41500,30 +41558,30 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="96" t="s">
+      <c r="A192" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B192" s="97"/>
-      <c r="C192" s="100" t="s">
+      <c r="B192" s="98"/>
+      <c r="C192" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D192" s="102" t="s">
+      <c r="D192" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E192" s="104" t="s">
+      <c r="E192" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F192" s="100" t="s">
+      <c r="F192" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="98"/>
-      <c r="B193" s="99"/>
-      <c r="C193" s="101"/>
-      <c r="D193" s="103"/>
-      <c r="E193" s="105"/>
-      <c r="F193" s="101"/>
+      <c r="A193" s="99"/>
+      <c r="B193" s="100"/>
+      <c r="C193" s="102"/>
+      <c r="D193" s="104"/>
+      <c r="E193" s="106"/>
+      <c r="F193" s="102"/>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="72" t="s">
@@ -42642,11 +42700,11 @@
       <c r="F255" s="4"/>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="95" t="s">
+      <c r="A256" s="96" t="s">
         <v>2459</v>
       </c>
-      <c r="B256" s="95"/>
-      <c r="C256" s="95"/>
+      <c r="B256" s="96"/>
+      <c r="C256" s="96"/>
       <c r="D256" s="23"/>
       <c r="E256" s="13" t="s">
         <v>2058</v>
@@ -42656,30 +42714,30 @@
       </c>
     </row>
     <row r="257" spans="1:6">
-      <c r="A257" s="96" t="s">
+      <c r="A257" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B257" s="97"/>
-      <c r="C257" s="100" t="s">
+      <c r="B257" s="98"/>
+      <c r="C257" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D257" s="102" t="s">
+      <c r="D257" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E257" s="104" t="s">
+      <c r="E257" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F257" s="100" t="s">
+      <c r="F257" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="258" spans="1:6">
-      <c r="A258" s="98"/>
-      <c r="B258" s="99"/>
-      <c r="C258" s="101"/>
-      <c r="D258" s="103"/>
-      <c r="E258" s="105"/>
-      <c r="F258" s="101"/>
+      <c r="A258" s="99"/>
+      <c r="B258" s="100"/>
+      <c r="C258" s="102"/>
+      <c r="D258" s="104"/>
+      <c r="E258" s="106"/>
+      <c r="F258" s="102"/>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="72" t="s">
@@ -43870,11 +43928,11 @@
       <c r="F324" s="4"/>
     </row>
     <row r="325" spans="1:6">
-      <c r="A325" s="95" t="s">
+      <c r="A325" s="96" t="s">
         <v>2459</v>
       </c>
-      <c r="B325" s="95"/>
-      <c r="C325" s="95"/>
+      <c r="B325" s="96"/>
+      <c r="C325" s="96"/>
       <c r="D325" s="23"/>
       <c r="E325" s="13" t="s">
         <v>2058</v>
@@ -43884,30 +43942,30 @@
       </c>
     </row>
     <row r="326" spans="1:6">
-      <c r="A326" s="96" t="s">
+      <c r="A326" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B326" s="97"/>
-      <c r="C326" s="100" t="s">
+      <c r="B326" s="98"/>
+      <c r="C326" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D326" s="102" t="s">
+      <c r="D326" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E326" s="104" t="s">
+      <c r="E326" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F326" s="100" t="s">
+      <c r="F326" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="327" spans="1:6">
-      <c r="A327" s="98"/>
-      <c r="B327" s="99"/>
-      <c r="C327" s="101"/>
-      <c r="D327" s="103"/>
-      <c r="E327" s="105"/>
-      <c r="F327" s="101"/>
+      <c r="A327" s="99"/>
+      <c r="B327" s="100"/>
+      <c r="C327" s="102"/>
+      <c r="D327" s="104"/>
+      <c r="E327" s="106"/>
+      <c r="F327" s="102"/>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="72" t="s">
@@ -44081,10 +44139,10 @@
       </c>
     </row>
     <row r="338" spans="1:6">
-      <c r="A338" s="95" t="s">
+      <c r="A338" s="96" t="s">
         <v>2420</v>
       </c>
-      <c r="B338" s="95"/>
+      <c r="B338" s="96"/>
       <c r="C338" s="17"/>
       <c r="D338" s="23"/>
       <c r="E338" s="13" t="s">
@@ -44095,30 +44153,30 @@
       </c>
     </row>
     <row r="339" spans="1:6" s="36" customFormat="1">
-      <c r="A339" s="96" t="s">
+      <c r="A339" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B339" s="97"/>
-      <c r="C339" s="100" t="s">
+      <c r="B339" s="98"/>
+      <c r="C339" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D339" s="102" t="s">
+      <c r="D339" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E339" s="104" t="s">
+      <c r="E339" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F339" s="100" t="s">
+      <c r="F339" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="340" spans="1:6" s="36" customFormat="1">
-      <c r="A340" s="98"/>
-      <c r="B340" s="99"/>
-      <c r="C340" s="101"/>
-      <c r="D340" s="103"/>
-      <c r="E340" s="105"/>
-      <c r="F340" s="101"/>
+      <c r="A340" s="99"/>
+      <c r="B340" s="100"/>
+      <c r="C340" s="102"/>
+      <c r="D340" s="104"/>
+      <c r="E340" s="106"/>
+      <c r="F340" s="102"/>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="18" t="s">
@@ -45120,10 +45178,10 @@
       </c>
     </row>
     <row r="397" spans="1:6">
-      <c r="A397" s="95" t="s">
+      <c r="A397" s="96" t="s">
         <v>2422</v>
       </c>
-      <c r="B397" s="95"/>
+      <c r="B397" s="96"/>
       <c r="C397" s="17"/>
       <c r="D397" s="23"/>
       <c r="E397" s="13" t="s">
@@ -45134,30 +45192,30 @@
       </c>
     </row>
     <row r="398" spans="1:6">
-      <c r="A398" s="96" t="s">
+      <c r="A398" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B398" s="97"/>
-      <c r="C398" s="100" t="s">
+      <c r="B398" s="98"/>
+      <c r="C398" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D398" s="102" t="s">
+      <c r="D398" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E398" s="104" t="s">
+      <c r="E398" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F398" s="100" t="s">
+      <c r="F398" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="399" spans="1:6">
-      <c r="A399" s="98"/>
-      <c r="B399" s="99"/>
-      <c r="C399" s="101"/>
-      <c r="D399" s="103"/>
-      <c r="E399" s="105"/>
-      <c r="F399" s="101"/>
+      <c r="A399" s="99"/>
+      <c r="B399" s="100"/>
+      <c r="C399" s="102"/>
+      <c r="D399" s="104"/>
+      <c r="E399" s="106"/>
+      <c r="F399" s="102"/>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="18" t="s">
@@ -46249,10 +46307,10 @@
       </c>
     </row>
     <row r="461" spans="1:6">
-      <c r="A461" s="95" t="s">
+      <c r="A461" s="96" t="s">
         <v>2702</v>
       </c>
-      <c r="B461" s="95"/>
+      <c r="B461" s="96"/>
       <c r="C461" s="17"/>
       <c r="D461" s="23"/>
       <c r="E461" s="13" t="s">
@@ -46263,30 +46321,30 @@
       </c>
     </row>
     <row r="462" spans="1:6">
-      <c r="A462" s="96" t="s">
+      <c r="A462" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B462" s="97"/>
-      <c r="C462" s="100" t="s">
+      <c r="B462" s="98"/>
+      <c r="C462" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D462" s="102" t="s">
+      <c r="D462" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E462" s="104" t="s">
+      <c r="E462" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F462" s="100" t="s">
+      <c r="F462" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="463" spans="1:6">
-      <c r="A463" s="98"/>
-      <c r="B463" s="99"/>
-      <c r="C463" s="101"/>
-      <c r="D463" s="103"/>
-      <c r="E463" s="105"/>
-      <c r="F463" s="101"/>
+      <c r="A463" s="99"/>
+      <c r="B463" s="100"/>
+      <c r="C463" s="102"/>
+      <c r="D463" s="104"/>
+      <c r="E463" s="106"/>
+      <c r="F463" s="102"/>
     </row>
     <row r="464" spans="1:6">
       <c r="A464" s="18" t="s">
@@ -47306,10 +47364,10 @@
       </c>
     </row>
     <row r="521" spans="1:6">
-      <c r="A521" s="95" t="s">
+      <c r="A521" s="96" t="s">
         <v>2423</v>
       </c>
-      <c r="B521" s="95"/>
+      <c r="B521" s="96"/>
       <c r="C521" s="17"/>
       <c r="D521" s="23"/>
       <c r="E521" s="13" t="s">
@@ -47320,30 +47378,30 @@
       </c>
     </row>
     <row r="522" spans="1:6">
-      <c r="A522" s="96" t="s">
+      <c r="A522" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B522" s="97"/>
-      <c r="C522" s="100" t="s">
+      <c r="B522" s="98"/>
+      <c r="C522" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D522" s="102" t="s">
+      <c r="D522" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E522" s="104" t="s">
+      <c r="E522" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F522" s="100" t="s">
+      <c r="F522" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="523" spans="1:6">
-      <c r="A523" s="98"/>
-      <c r="B523" s="99"/>
-      <c r="C523" s="101"/>
-      <c r="D523" s="103"/>
-      <c r="E523" s="105"/>
-      <c r="F523" s="101"/>
+      <c r="A523" s="99"/>
+      <c r="B523" s="100"/>
+      <c r="C523" s="102"/>
+      <c r="D523" s="104"/>
+      <c r="E523" s="106"/>
+      <c r="F523" s="102"/>
     </row>
     <row r="524" spans="1:6">
       <c r="A524" s="18" t="s">
@@ -47967,44 +48025,44 @@
       </c>
     </row>
     <row r="559" spans="1:6">
-      <c r="A559" s="95" t="s">
+      <c r="A559" s="96" t="s">
         <v>2703</v>
       </c>
-      <c r="B559" s="95"/>
+      <c r="B559" s="96"/>
       <c r="C559" s="17"/>
       <c r="D559" s="13" t="s">
         <v>2058</v>
       </c>
-      <c r="E559" s="117" t="s">
+      <c r="E559" s="118" t="s">
         <v>2704</v>
       </c>
-      <c r="F559" s="117"/>
+      <c r="F559" s="118"/>
     </row>
     <row r="560" spans="1:6">
-      <c r="A560" s="96" t="s">
+      <c r="A560" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B560" s="97"/>
-      <c r="C560" s="100" t="s">
+      <c r="B560" s="98"/>
+      <c r="C560" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D560" s="102" t="s">
+      <c r="D560" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E560" s="104" t="s">
+      <c r="E560" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F560" s="100" t="s">
+      <c r="F560" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="561" spans="1:6">
-      <c r="A561" s="98"/>
-      <c r="B561" s="99"/>
-      <c r="C561" s="101"/>
-      <c r="D561" s="103"/>
-      <c r="E561" s="105"/>
-      <c r="F561" s="101"/>
+      <c r="A561" s="99"/>
+      <c r="B561" s="100"/>
+      <c r="C561" s="102"/>
+      <c r="D561" s="104"/>
+      <c r="E561" s="106"/>
+      <c r="F561" s="102"/>
     </row>
     <row r="562" spans="1:6">
       <c r="A562" s="18" t="s">
@@ -48845,10 +48903,10 @@
       </c>
     </row>
     <row r="609" spans="1:6">
-      <c r="A609" s="95" t="s">
+      <c r="A609" s="96" t="s">
         <v>2424</v>
       </c>
-      <c r="B609" s="95"/>
+      <c r="B609" s="96"/>
       <c r="C609" s="17"/>
       <c r="D609" s="23"/>
       <c r="E609" s="13" t="s">
@@ -48859,30 +48917,30 @@
       </c>
     </row>
     <row r="610" spans="1:6">
-      <c r="A610" s="96" t="s">
+      <c r="A610" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B610" s="97"/>
-      <c r="C610" s="100" t="s">
+      <c r="B610" s="98"/>
+      <c r="C610" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D610" s="102" t="s">
+      <c r="D610" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E610" s="104" t="s">
+      <c r="E610" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F610" s="100" t="s">
+      <c r="F610" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="611" spans="1:6">
-      <c r="A611" s="98"/>
-      <c r="B611" s="99"/>
-      <c r="C611" s="101"/>
-      <c r="D611" s="103"/>
-      <c r="E611" s="105"/>
-      <c r="F611" s="101"/>
+      <c r="A611" s="99"/>
+      <c r="B611" s="100"/>
+      <c r="C611" s="102"/>
+      <c r="D611" s="104"/>
+      <c r="E611" s="106"/>
+      <c r="F611" s="102"/>
     </row>
     <row r="612" spans="1:6">
       <c r="A612" s="18" t="s">
@@ -49276,7 +49334,7 @@
       <c r="A634" s="18" t="s">
         <v>1582</v>
       </c>
-      <c r="B634" s="43" t="s">
+      <c r="B634" s="94" t="s">
         <v>2359</v>
       </c>
       <c r="C634" s="30" t="s">
@@ -49571,10 +49629,10 @@
       </c>
     </row>
     <row r="651" spans="1:6">
-      <c r="A651" s="95" t="s">
+      <c r="A651" s="96" t="s">
         <v>2542</v>
       </c>
-      <c r="B651" s="95"/>
+      <c r="B651" s="96"/>
       <c r="C651" s="17"/>
       <c r="D651" s="23"/>
       <c r="E651" s="13" t="s">
@@ -49585,30 +49643,30 @@
       </c>
     </row>
     <row r="652" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A652" s="96" t="s">
+      <c r="A652" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B652" s="97"/>
-      <c r="C652" s="100" t="s">
+      <c r="B652" s="98"/>
+      <c r="C652" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D652" s="102" t="s">
+      <c r="D652" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E652" s="104" t="s">
+      <c r="E652" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F652" s="100" t="s">
+      <c r="F652" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="653" spans="1:6">
-      <c r="A653" s="98"/>
-      <c r="B653" s="99"/>
-      <c r="C653" s="101"/>
-      <c r="D653" s="103"/>
-      <c r="E653" s="105"/>
-      <c r="F653" s="101"/>
+      <c r="A653" s="99"/>
+      <c r="B653" s="100"/>
+      <c r="C653" s="102"/>
+      <c r="D653" s="104"/>
+      <c r="E653" s="106"/>
+      <c r="F653" s="102"/>
     </row>
     <row r="654" spans="1:6">
       <c r="A654" s="18" t="s">
@@ -50322,10 +50380,10 @@
       </c>
     </row>
     <row r="715" spans="1:6">
-      <c r="A715" s="95" t="s">
+      <c r="A715" s="96" t="s">
         <v>2644</v>
       </c>
-      <c r="B715" s="95"/>
+      <c r="B715" s="96"/>
       <c r="C715" s="17"/>
       <c r="D715" s="23"/>
       <c r="E715" s="13" t="s">
@@ -50336,30 +50394,30 @@
       </c>
     </row>
     <row r="716" spans="1:6">
-      <c r="A716" s="96" t="s">
+      <c r="A716" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B716" s="97"/>
-      <c r="C716" s="100" t="s">
+      <c r="B716" s="98"/>
+      <c r="C716" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D716" s="102" t="s">
+      <c r="D716" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E716" s="104" t="s">
+      <c r="E716" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F716" s="100" t="s">
+      <c r="F716" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="717" spans="1:6">
-      <c r="A717" s="98"/>
-      <c r="B717" s="99"/>
-      <c r="C717" s="101"/>
-      <c r="D717" s="103"/>
-      <c r="E717" s="105"/>
-      <c r="F717" s="101"/>
+      <c r="A717" s="99"/>
+      <c r="B717" s="100"/>
+      <c r="C717" s="102"/>
+      <c r="D717" s="104"/>
+      <c r="E717" s="106"/>
+      <c r="F717" s="102"/>
     </row>
     <row r="718" spans="1:6">
       <c r="A718" s="18" t="s">
@@ -51037,10 +51095,10 @@
       </c>
     </row>
     <row r="784" spans="1:6">
-      <c r="A784" s="95" t="s">
+      <c r="A784" s="96" t="s">
         <v>3292</v>
       </c>
-      <c r="B784" s="95"/>
+      <c r="B784" s="96"/>
       <c r="C784" s="17"/>
       <c r="D784" s="23"/>
       <c r="E784" s="13" t="s">
@@ -51051,30 +51109,30 @@
       </c>
     </row>
     <row r="785" spans="1:6">
-      <c r="A785" s="96" t="s">
+      <c r="A785" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B785" s="97"/>
-      <c r="C785" s="100" t="s">
+      <c r="B785" s="98"/>
+      <c r="C785" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D785" s="102" t="s">
+      <c r="D785" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E785" s="104" t="s">
+      <c r="E785" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F785" s="100" t="s">
+      <c r="F785" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="786" spans="1:6">
-      <c r="A786" s="98"/>
-      <c r="B786" s="99"/>
-      <c r="C786" s="101"/>
-      <c r="D786" s="103"/>
-      <c r="E786" s="105"/>
-      <c r="F786" s="101"/>
+      <c r="A786" s="99"/>
+      <c r="B786" s="100"/>
+      <c r="C786" s="102"/>
+      <c r="D786" s="104"/>
+      <c r="E786" s="106"/>
+      <c r="F786" s="102"/>
     </row>
     <row r="787" spans="1:6">
       <c r="A787" s="18" t="s">
@@ -52303,10 +52361,10 @@
       <c r="F854" s="25"/>
     </row>
     <row r="855" spans="1:6">
-      <c r="A855" s="95" t="s">
+      <c r="A855" s="96" t="s">
         <v>3292</v>
       </c>
-      <c r="B855" s="95"/>
+      <c r="B855" s="96"/>
       <c r="C855" s="17"/>
       <c r="D855" s="23"/>
       <c r="E855" s="13" t="s">
@@ -52317,30 +52375,30 @@
       </c>
     </row>
     <row r="856" spans="1:6">
-      <c r="A856" s="96" t="s">
+      <c r="A856" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B856" s="97"/>
-      <c r="C856" s="100" t="s">
+      <c r="B856" s="98"/>
+      <c r="C856" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D856" s="102" t="s">
+      <c r="D856" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E856" s="104" t="s">
+      <c r="E856" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F856" s="100" t="s">
+      <c r="F856" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="857" spans="1:6">
-      <c r="A857" s="98"/>
-      <c r="B857" s="99"/>
-      <c r="C857" s="101"/>
-      <c r="D857" s="103"/>
-      <c r="E857" s="105"/>
-      <c r="F857" s="101"/>
+      <c r="A857" s="99"/>
+      <c r="B857" s="100"/>
+      <c r="C857" s="102"/>
+      <c r="D857" s="104"/>
+      <c r="E857" s="106"/>
+      <c r="F857" s="102"/>
     </row>
     <row r="858" spans="1:6">
       <c r="A858" s="41" t="s">
@@ -52820,10 +52878,10 @@
       </c>
     </row>
     <row r="885" spans="1:6">
-      <c r="A885" s="95" t="s">
+      <c r="A885" s="96" t="s">
         <v>3507</v>
       </c>
-      <c r="B885" s="95"/>
+      <c r="B885" s="96"/>
       <c r="C885" s="17"/>
       <c r="D885" s="23"/>
       <c r="E885" s="13" t="s">
@@ -52834,30 +52892,30 @@
       </c>
     </row>
     <row r="886" spans="1:6">
-      <c r="A886" s="96" t="s">
+      <c r="A886" s="97" t="s">
         <v>2047</v>
       </c>
-      <c r="B886" s="97"/>
-      <c r="C886" s="100" t="s">
+      <c r="B886" s="98"/>
+      <c r="C886" s="101" t="s">
         <v>2046</v>
       </c>
-      <c r="D886" s="102" t="s">
+      <c r="D886" s="103" t="s">
         <v>2045</v>
       </c>
-      <c r="E886" s="104" t="s">
+      <c r="E886" s="105" t="s">
         <v>2044</v>
       </c>
-      <c r="F886" s="100" t="s">
+      <c r="F886" s="101" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="887" spans="1:6">
-      <c r="A887" s="98"/>
-      <c r="B887" s="99"/>
-      <c r="C887" s="101"/>
-      <c r="D887" s="103"/>
-      <c r="E887" s="105"/>
-      <c r="F887" s="101"/>
+      <c r="A887" s="99"/>
+      <c r="B887" s="100"/>
+      <c r="C887" s="102"/>
+      <c r="D887" s="104"/>
+      <c r="E887" s="106"/>
+      <c r="F887" s="102"/>
     </row>
     <row r="888" spans="1:6">
       <c r="A888" s="41" t="s">
@@ -54225,5 +54283,6 @@
     <brk id="854" max="16383" man="1"/>
     <brk id="884" max="16383" man="1"/>
   </rowBreaks>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>